--- a/resources/Students.xlsx
+++ b/resources/Students.xlsx
@@ -31,10 +31,10 @@
     <t>valverde</t>
   </si>
   <si>
-    <t>amusing-maria-45</t>
+    <t>calm-maria-98</t>
   </si>
   <si>
-    <t>qezFX3QR</t>
+    <t>GVYGvyUe</t>
   </si>
   <si>
     <t>juanjo</t>
@@ -43,10 +43,10 @@
     <t>del valle</t>
   </si>
   <si>
-    <t>amicable-juanjo-76</t>
+    <t>rational-juanjo-44</t>
   </si>
   <si>
-    <t>4Jm86G9t</t>
+    <t>PrvPkH1V</t>
   </si>
 </sst>
 </file>

--- a/resources/Students.xlsx
+++ b/resources/Students.xlsx
@@ -31,10 +31,10 @@
     <t>valverde</t>
   </si>
   <si>
-    <t>calm-maria-98</t>
+    <t>pioneering-maria-19</t>
   </si>
   <si>
-    <t>GVYGvyUe</t>
+    <t>cvtE5Md7</t>
   </si>
   <si>
     <t>juanjo</t>
@@ -43,10 +43,10 @@
     <t>del valle</t>
   </si>
   <si>
-    <t>rational-juanjo-44</t>
+    <t>straightforward-juanjo-19</t>
   </si>
   <si>
-    <t>PrvPkH1V</t>
+    <t>aNfrftQH</t>
   </si>
 </sst>
 </file>
